--- a/data/0. old data/0. raw/2016/companies/astellas.xlsx
+++ b/data/0. old data/0. raw/2016/companies/astellas.xlsx
@@ -138,15 +138,6 @@
         <sz val="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Urozentrum Zollikon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>Fribourg</t>
     </r>
   </si>
@@ -2162,6 +2153,15 @@
   </si>
   <si>
     <t>astellas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Urozentrum Zollikon, Forchstrasse 424</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3236,9 +3236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>23</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>25</v>
@@ -3363,16 +3363,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -3392,16 +3392,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3450,16 +3450,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3481,16 +3481,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -3514,16 +3514,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -3543,16 +3543,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -3574,16 +3574,16 @@
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3606,16 +3606,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -3635,16 +3635,16 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -3666,16 +3666,16 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -3726,16 +3726,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -3757,16 +3757,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -3786,16 +3786,16 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -3817,16 +3817,16 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -3877,16 +3877,16 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -3908,16 +3908,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3937,16 +3937,16 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3970,16 +3970,16 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -4032,16 +4032,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -4061,16 +4061,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -4090,16 +4090,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -4121,16 +4121,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -4152,16 +4152,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -4183,16 +4183,16 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -4214,16 +4214,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -4274,16 +4274,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -4305,16 +4305,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -4333,13 +4333,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>23</v>
@@ -4363,16 +4363,16 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="C37" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -4393,16 +4393,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -4423,16 +4423,16 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -4453,16 +4453,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -4481,16 +4481,16 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -4509,16 +4509,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -4537,16 +4537,16 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -4567,16 +4567,16 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -4597,16 +4597,16 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -4627,16 +4627,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -4655,16 +4655,16 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -4685,16 +4685,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -4769,16 +4769,16 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -4799,16 +4799,16 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -4827,16 +4827,16 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -4855,16 +4855,16 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -4883,16 +4883,16 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -4915,16 +4915,16 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -4943,16 +4943,16 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -4971,16 +4971,16 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -4999,16 +4999,16 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5027,16 +5027,16 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -5057,16 +5057,16 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="21"/>
@@ -5086,16 +5086,16 @@
     </row>
     <row r="62" spans="1:18" ht="26">
       <c r="A62" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -5118,16 +5118,16 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -5150,16 +5150,16 @@
     </row>
     <row r="64" spans="1:18" s="13" customFormat="1">
       <c r="A64" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>30</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>31</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -5186,16 +5186,16 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -5218,16 +5218,16 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>277</v>
-      </c>
       <c r="C66" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -5248,16 +5248,16 @@
     </row>
     <row r="67" spans="1:18" s="13" customFormat="1">
       <c r="A67" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32">
@@ -5276,16 +5276,16 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="16">
@@ -5304,16 +5304,16 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F69" s="24">
         <v>2500</v>
@@ -5340,16 +5340,16 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="24">
@@ -5368,16 +5368,16 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="F71" s="25">
         <v>244246.6</v>
@@ -5398,16 +5398,16 @@
     </row>
     <row r="72" spans="1:18" s="13" customFormat="1" ht="26">
       <c r="A72" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="C72" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32">
@@ -5426,16 +5426,16 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24">
@@ -5454,16 +5454,16 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="34">
@@ -5482,16 +5482,16 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24">
@@ -5510,16 +5510,16 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24">
@@ -5538,16 +5538,16 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="C77" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>115</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>116</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="32"/>
@@ -5567,16 +5567,16 @@
     </row>
     <row r="78" spans="1:18" s="13" customFormat="1">
       <c r="A78" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>284</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="29">
@@ -5595,16 +5595,16 @@
     </row>
     <row r="79" spans="1:18" s="13" customFormat="1">
       <c r="A79" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>285</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>286</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="32">
@@ -5623,16 +5623,16 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F80" s="24">
         <v>0</v>
@@ -5653,16 +5653,16 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F81" s="24">
         <v>0</v>
@@ -5683,16 +5683,16 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="F82" s="29">
         <v>6500</v>
@@ -5719,16 +5719,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="C83" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F83" s="25"/>
       <c r="G83" s="25">
@@ -5751,13 +5751,13 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>23</v>
@@ -5779,16 +5779,16 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25">
@@ -5811,16 +5811,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25">
@@ -5839,16 +5839,16 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="F87" s="25"/>
       <c r="G87" s="25">
@@ -5867,16 +5867,16 @@
     </row>
     <row r="88" spans="1:13" s="13" customFormat="1">
       <c r="A88" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="29">
@@ -5897,16 +5897,16 @@
     </row>
     <row r="89" spans="1:13" s="13" customFormat="1">
       <c r="A89" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="C89" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="29">
@@ -5925,16 +5925,16 @@
     </row>
     <row r="90" spans="1:13" s="13" customFormat="1">
       <c r="A90" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="F90" s="29"/>
       <c r="G90" s="29">
@@ -5953,16 +5953,16 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>137</v>
       </c>
       <c r="F91" s="25"/>
       <c r="G91" s="25">
@@ -5981,16 +5981,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="C92" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="25">
@@ -6009,16 +6009,16 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="25">
@@ -6037,16 +6037,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="25">
@@ -6069,16 +6069,16 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="C95" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="F95" s="25">
         <v>2750</v>
@@ -6099,16 +6099,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="C96" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25">
@@ -6127,16 +6127,16 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -6157,16 +6157,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="F98" s="25"/>
       <c r="G98" s="25">
@@ -6185,16 +6185,16 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="C99" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="F99" s="25"/>
       <c r="G99" s="25">
@@ -6213,16 +6213,16 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="F100" s="25">
         <v>30000</v>
@@ -6243,16 +6243,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="F101" s="25">
         <v>1500</v>
@@ -6273,16 +6273,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25">
@@ -6301,16 +6301,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B103" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25">
@@ -6329,16 +6329,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25">
@@ -6357,16 +6357,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="25">
@@ -6385,16 +6385,16 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="F106" s="25"/>
       <c r="G106" s="25">
@@ -6413,16 +6413,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="C107" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="F107" s="25"/>
       <c r="G107" s="25">
@@ -6441,16 +6441,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F108" s="25"/>
       <c r="G108" s="25">
@@ -6469,16 +6469,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="F109" s="25">
         <v>4437</v>
@@ -6497,16 +6497,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="F110" s="25"/>
       <c r="G110" s="25">
@@ -6525,16 +6525,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F111" s="25">
         <v>35000</v>
@@ -6555,16 +6555,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="F112" s="25"/>
       <c r="G112" s="25">
@@ -6583,16 +6583,16 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="F113" s="25"/>
       <c r="G113" s="25">
@@ -6611,16 +6611,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="F114" s="25"/>
       <c r="G114" s="25"/>
@@ -6639,16 +6639,16 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="F115" s="25">
         <v>21000</v>
@@ -6669,16 +6669,16 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F116" s="25"/>
       <c r="G116" s="25">
@@ -6699,16 +6699,16 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
@@ -6731,16 +6731,16 @@
     </row>
     <row r="118" spans="1:13" s="13" customFormat="1" ht="26">
       <c r="A118" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F118" s="29">
         <v>0</v>
@@ -6763,16 +6763,16 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="F119" s="25">
         <v>43500</v>
@@ -6799,16 +6799,16 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="F120" s="25"/>
       <c r="G120" s="25">
@@ -7401,7 +7401,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10">
         <v>2016</v>
